--- a/datamining/final_data/sum2017.xlsx
+++ b/datamining/final_data/sum2017.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EOE2"/>
+  <dimension ref="A1:EOF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18467,840 +18467,845 @@
       </c>
       <c r="EHT1" s="1" t="inlineStr">
         <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="EHU1" s="1" t="inlineStr">
+        <is>
           <t>기준점</t>
         </is>
       </c>
-      <c r="EHU1" s="1" t="inlineStr">
+      <c r="EHV1" s="1" t="inlineStr">
         <is>
           <t>상회</t>
         </is>
       </c>
-      <c r="EHV1" s="1" t="inlineStr">
+      <c r="EHW1" s="1" t="inlineStr">
         <is>
           <t>트렌드</t>
         </is>
       </c>
-      <c r="EHW1" s="1" t="inlineStr">
+      <c r="EHX1" s="1" t="inlineStr">
         <is>
           <t>하회</t>
         </is>
       </c>
-      <c r="EHX1" s="1" t="inlineStr">
+      <c r="EHY1" s="1" t="inlineStr">
         <is>
           <t>합의도</t>
         </is>
       </c>
-      <c r="EHY1" s="1" t="inlineStr">
+      <c r="EHZ1" s="1" t="inlineStr">
         <is>
           <t>합의</t>
         </is>
       </c>
-      <c r="EHZ1" s="1" t="inlineStr">
+      <c r="EIA1" s="1" t="inlineStr">
         <is>
           <t>분석후</t>
         </is>
       </c>
-      <c r="EIA1" s="1" t="inlineStr">
+      <c r="EIB1" s="1" t="inlineStr">
         <is>
           <t>처우</t>
         </is>
       </c>
-      <c r="EIB1" s="1" t="inlineStr">
+      <c r="EIC1" s="1" t="inlineStr">
         <is>
           <t>형태소</t>
         </is>
       </c>
-      <c r="EIC1" s="1" t="inlineStr">
+      <c r="EID1" s="1" t="inlineStr">
         <is>
           <t>인포메이션</t>
         </is>
       </c>
-      <c r="EID1" s="1" t="inlineStr">
+      <c r="EIE1" s="1" t="inlineStr">
         <is>
           <t>박사</t>
         </is>
       </c>
-      <c r="EIE1" s="1" t="inlineStr">
+      <c r="EIF1" s="1" t="inlineStr">
         <is>
           <t>빈도수</t>
         </is>
       </c>
-      <c r="EIF1" s="1" t="inlineStr">
+      <c r="EIG1" s="1" t="inlineStr">
         <is>
           <t>거론</t>
         </is>
       </c>
-      <c r="EIG1" s="1" t="inlineStr">
+      <c r="EIH1" s="1" t="inlineStr">
         <is>
           <t>상정</t>
         </is>
       </c>
-      <c r="EIH1" s="1" t="inlineStr">
+      <c r="EII1" s="1" t="inlineStr">
         <is>
           <t>예측변인</t>
         </is>
       </c>
-      <c r="EII1" s="1" t="inlineStr">
+      <c r="EIJ1" s="1" t="inlineStr">
         <is>
           <t>참가자</t>
         </is>
       </c>
-      <c r="EIJ1" s="1" t="inlineStr">
+      <c r="EIK1" s="1" t="inlineStr">
         <is>
           <t>우수자</t>
         </is>
       </c>
-      <c r="EIK1" s="1" t="inlineStr">
+      <c r="EIL1" s="1" t="inlineStr">
         <is>
           <t>입시</t>
         </is>
       </c>
-      <c r="EIL1" s="1" t="inlineStr">
+      <c r="EIM1" s="1" t="inlineStr">
         <is>
           <t>입학생</t>
         </is>
       </c>
-      <c r="EIM1" s="1" t="inlineStr">
+      <c r="EIN1" s="1" t="inlineStr">
         <is>
           <t>정시</t>
         </is>
       </c>
-      <c r="EIN1" s="1" t="inlineStr">
+      <c r="EIO1" s="1" t="inlineStr">
         <is>
           <t>충성도</t>
         </is>
       </c>
-      <c r="EIO1" s="1" t="inlineStr">
+      <c r="EIP1" s="1" t="inlineStr">
         <is>
           <t>학과</t>
         </is>
       </c>
-      <c r="EIP1" s="1" t="inlineStr">
+      <c r="EIQ1" s="1" t="inlineStr">
         <is>
           <t>서보드</t>
         </is>
       </c>
-      <c r="EIQ1" s="1" t="inlineStr">
+      <c r="EIR1" s="1" t="inlineStr">
         <is>
           <t>완성도</t>
         </is>
       </c>
-      <c r="EIR1" s="1" t="inlineStr">
+      <c r="EIS1" s="1" t="inlineStr">
         <is>
           <t>renzulli</t>
         </is>
       </c>
-      <c r="EIS1" s="1" t="inlineStr">
+      <c r="EIT1" s="1" t="inlineStr">
         <is>
           <t>사안</t>
         </is>
       </c>
-      <c r="EIT1" s="1" t="inlineStr">
+      <c r="EIU1" s="1" t="inlineStr">
         <is>
           <t>줄리</t>
         </is>
       </c>
-      <c r="EIU1" s="1" t="inlineStr">
+      <c r="EIV1" s="1" t="inlineStr">
         <is>
           <t>초등정보</t>
         </is>
       </c>
-      <c r="EIV1" s="1" t="inlineStr">
+      <c r="EIW1" s="1" t="inlineStr">
         <is>
           <t>숙제</t>
         </is>
       </c>
-      <c r="EIW1" s="1" t="inlineStr">
+      <c r="EIX1" s="1" t="inlineStr">
         <is>
           <t>과학쇼</t>
         </is>
       </c>
-      <c r="EIX1" s="1" t="inlineStr">
+      <c r="EIY1" s="1" t="inlineStr">
         <is>
           <t>마술</t>
         </is>
       </c>
-      <c r="EIY1" s="1" t="inlineStr">
+      <c r="EIZ1" s="1" t="inlineStr">
         <is>
           <t>오렌지</t>
         </is>
       </c>
-      <c r="EIZ1" s="1" t="inlineStr">
+      <c r="EJA1" s="1" t="inlineStr">
         <is>
           <t>패리티비트</t>
         </is>
       </c>
-      <c r="EJA1" s="1" t="inlineStr">
+      <c r="EJB1" s="1" t="inlineStr">
         <is>
           <t>자기장</t>
         </is>
       </c>
-      <c r="EJB1" s="1" t="inlineStr">
+      <c r="EJC1" s="1" t="inlineStr">
         <is>
           <t>자석</t>
         </is>
       </c>
-      <c r="EJC1" s="1" t="inlineStr">
+      <c r="EJD1" s="1" t="inlineStr">
         <is>
           <t>멘토</t>
         </is>
       </c>
-      <c r="EJD1" s="1" t="inlineStr">
+      <c r="EJE1" s="1" t="inlineStr">
         <is>
           <t>에듀</t>
         </is>
       </c>
-      <c r="EJE1" s="1" t="inlineStr">
+      <c r="EJF1" s="1" t="inlineStr">
         <is>
           <t>에듀톤</t>
         </is>
       </c>
-      <c r="EJF1" s="1" t="inlineStr">
+      <c r="EJG1" s="1" t="inlineStr">
         <is>
           <t>예선</t>
         </is>
       </c>
-      <c r="EJG1" s="1" t="inlineStr">
+      <c r="EJH1" s="1" t="inlineStr">
         <is>
           <t>일지</t>
         </is>
       </c>
-      <c r="EJH1" s="1" t="inlineStr">
+      <c r="EJI1" s="1" t="inlineStr">
         <is>
           <t>rossett</t>
         </is>
       </c>
-      <c r="EJI1" s="1" t="inlineStr">
+      <c r="EJJ1" s="1" t="inlineStr">
         <is>
           <t>건물</t>
         </is>
       </c>
-      <c r="EJJ1" s="1" t="inlineStr">
+      <c r="EJK1" s="1" t="inlineStr">
         <is>
           <t>공변인</t>
         </is>
       </c>
-      <c r="EJK1" s="1" t="inlineStr">
+      <c r="EJL1" s="1" t="inlineStr">
         <is>
           <t>삼각비</t>
         </is>
       </c>
-      <c r="EJL1" s="1" t="inlineStr">
+      <c r="EJM1" s="1" t="inlineStr">
         <is>
           <t>포트리스</t>
         </is>
       </c>
-      <c r="EJM1" s="1" t="inlineStr">
+      <c r="EJN1" s="1" t="inlineStr">
         <is>
           <t>다집단</t>
         </is>
       </c>
-      <c r="EJN1" s="1" t="inlineStr">
+      <c r="EJO1" s="1" t="inlineStr">
         <is>
           <t>서울교육종단</t>
         </is>
       </c>
-      <c r="EJO1" s="1" t="inlineStr">
+      <c r="EJP1" s="1" t="inlineStr">
         <is>
           <t>여가용</t>
         </is>
       </c>
-      <c r="EJP1" s="1" t="inlineStr">
+      <c r="EJQ1" s="1" t="inlineStr">
         <is>
           <t>자기주도학습</t>
         </is>
       </c>
-      <c r="EJQ1" s="1" t="inlineStr">
+      <c r="EJR1" s="1" t="inlineStr">
         <is>
           <t>종단연구</t>
         </is>
       </c>
-      <c r="EJR1" s="1" t="inlineStr">
+      <c r="EJS1" s="1" t="inlineStr">
         <is>
           <t>차년</t>
         </is>
       </c>
-      <c r="EJS1" s="1" t="inlineStr">
+      <c r="EJT1" s="1" t="inlineStr">
         <is>
           <t>dependencies</t>
         </is>
       </c>
-      <c r="EJT1" s="1" t="inlineStr">
+      <c r="EJU1" s="1" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="EJU1" s="1" t="inlineStr">
+      <c r="EJV1" s="1" t="inlineStr">
         <is>
           <t>network</t>
         </is>
       </c>
-      <c r="EJV1" s="1" t="inlineStr">
+      <c r="EJW1" s="1" t="inlineStr">
         <is>
           <t>neural</t>
         </is>
       </c>
-      <c r="EJW1" s="1" t="inlineStr">
+      <c r="EJX1" s="1" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="EJX1" s="1" t="inlineStr">
+      <c r="EJY1" s="1" t="inlineStr">
         <is>
           <t>recurrent</t>
         </is>
       </c>
-      <c r="EJY1" s="1" t="inlineStr">
+      <c r="EJZ1" s="1" t="inlineStr">
         <is>
           <t>subword</t>
         </is>
       </c>
-      <c r="EJZ1" s="1" t="inlineStr">
+      <c r="EKA1" s="1" t="inlineStr">
         <is>
           <t>term</t>
         </is>
       </c>
-      <c r="EKA1" s="1" t="inlineStr">
+      <c r="EKB1" s="1" t="inlineStr">
         <is>
           <t>검사기</t>
         </is>
       </c>
-      <c r="EKB1" s="1" t="inlineStr">
+      <c r="EKC1" s="1" t="inlineStr">
         <is>
           <t>단일어</t>
         </is>
       </c>
-      <c r="EKC1" s="1" t="inlineStr">
+      <c r="EKD1" s="1" t="inlineStr">
         <is>
           <t>맞춤법</t>
         </is>
       </c>
-      <c r="EKD1" s="1" t="inlineStr">
+      <c r="EKE1" s="1" t="inlineStr">
         <is>
           <t>코퍼스</t>
         </is>
       </c>
-      <c r="EKE1" s="1" t="inlineStr">
+      <c r="EKF1" s="1" t="inlineStr">
         <is>
           <t>희소</t>
         </is>
       </c>
-      <c r="EKF1" s="1" t="inlineStr">
+      <c r="EKG1" s="1" t="inlineStr">
         <is>
           <t>브랜드</t>
         </is>
       </c>
-      <c r="EKG1" s="1" t="inlineStr">
+      <c r="EKH1" s="1" t="inlineStr">
         <is>
           <t>자국</t>
         </is>
       </c>
-      <c r="EKH1" s="1" t="inlineStr">
+      <c r="EKI1" s="1" t="inlineStr">
         <is>
           <t>장학사</t>
         </is>
       </c>
-      <c r="EKI1" s="1" t="inlineStr">
+      <c r="EKJ1" s="1" t="inlineStr">
         <is>
           <t>주년</t>
         </is>
       </c>
-      <c r="EKJ1" s="1" t="inlineStr">
+      <c r="EKK1" s="1" t="inlineStr">
         <is>
           <t>주무관</t>
         </is>
       </c>
-      <c r="EKK1" s="1" t="inlineStr">
+      <c r="EKL1" s="1" t="inlineStr">
         <is>
           <t>초청</t>
         </is>
       </c>
-      <c r="EKL1" s="1" t="inlineStr">
+      <c r="EKM1" s="1" t="inlineStr">
         <is>
           <t>협력국</t>
         </is>
       </c>
-      <c r="EKM1" s="1" t="inlineStr">
+      <c r="EKN1" s="1" t="inlineStr">
         <is>
           <t>개국</t>
         </is>
       </c>
-      <c r="EKN1" s="1" t="inlineStr">
+      <c r="EKO1" s="1" t="inlineStr">
         <is>
           <t>선형</t>
         </is>
       </c>
-      <c r="EKO1" s="1" t="inlineStr">
+      <c r="EKP1" s="1" t="inlineStr">
         <is>
           <t>소용돌이</t>
         </is>
       </c>
-      <c r="EKP1" s="1" t="inlineStr">
+      <c r="EKQ1" s="1" t="inlineStr">
         <is>
           <t>예외</t>
         </is>
       </c>
-      <c r="EKQ1" s="1" t="inlineStr">
+      <c r="EKR1" s="1" t="inlineStr">
         <is>
           <t>주역</t>
         </is>
       </c>
-      <c r="EKR1" s="1" t="inlineStr">
+      <c r="EKS1" s="1" t="inlineStr">
         <is>
           <t>torrance</t>
         </is>
       </c>
-      <c r="EKS1" s="1" t="inlineStr">
+      <c r="EKT1" s="1" t="inlineStr">
         <is>
           <t>제주</t>
         </is>
       </c>
-      <c r="EKT1" s="1" t="inlineStr">
+      <c r="EKU1" s="1" t="inlineStr">
         <is>
           <t>컴퓨터교육</t>
         </is>
       </c>
-      <c r="EKU1" s="1" t="inlineStr">
+      <c r="EKV1" s="1" t="inlineStr">
         <is>
           <t>다년</t>
         </is>
       </c>
-      <c r="EKV1" s="1" t="inlineStr">
+      <c r="EKW1" s="1" t="inlineStr">
         <is>
           <t>디자</t>
         </is>
       </c>
-      <c r="EKW1" s="1" t="inlineStr">
+      <c r="EKX1" s="1" t="inlineStr">
         <is>
           <t>발상</t>
         </is>
       </c>
-      <c r="EKX1" s="1" t="inlineStr">
+      <c r="EKY1" s="1" t="inlineStr">
         <is>
           <t>코스</t>
         </is>
       </c>
-      <c r="EKY1" s="1" t="inlineStr">
+      <c r="EKZ1" s="1" t="inlineStr">
         <is>
           <t>사물인터넷</t>
         </is>
       </c>
-      <c r="EKZ1" s="1" t="inlineStr">
+      <c r="ELA1" s="1" t="inlineStr">
         <is>
           <t>윷놀이</t>
         </is>
       </c>
-      <c r="ELA1" s="1" t="inlineStr">
+      <c r="ELB1" s="1" t="inlineStr">
         <is>
           <t>획기적</t>
         </is>
       </c>
-      <c r="ELB1" s="1" t="inlineStr">
+      <c r="ELC1" s="1" t="inlineStr">
         <is>
           <t>중다회</t>
         </is>
       </c>
-      <c r="ELC1" s="1" t="inlineStr">
+      <c r="ELD1" s="1" t="inlineStr">
         <is>
           <t>tests</t>
         </is>
       </c>
-      <c r="ELD1" s="1" t="inlineStr">
+      <c r="ELE1" s="1" t="inlineStr">
         <is>
           <t>경제혁신센터</t>
         </is>
       </c>
-      <c r="ELE1" s="1" t="inlineStr">
+      <c r="ELF1" s="1" t="inlineStr">
         <is>
           <t>청년</t>
         </is>
       </c>
-      <c r="ELF1" s="1" t="inlineStr">
+      <c r="ELG1" s="1" t="inlineStr">
         <is>
           <t>관통</t>
         </is>
       </c>
-      <c r="ELG1" s="1" t="inlineStr">
+      <c r="ELH1" s="1" t="inlineStr">
         <is>
           <t>재정의</t>
         </is>
       </c>
-      <c r="ELH1" s="1" t="inlineStr">
+      <c r="ELI1" s="1" t="inlineStr">
         <is>
           <t>합성식</t>
         </is>
       </c>
-      <c r="ELI1" s="1" t="inlineStr">
+      <c r="ELJ1" s="1" t="inlineStr">
         <is>
           <t>공분산</t>
         </is>
       </c>
-      <c r="ELJ1" s="1" t="inlineStr">
+      <c r="ELK1" s="1" t="inlineStr">
         <is>
           <t>햄스터</t>
         </is>
       </c>
-      <c r="ELK1" s="1" t="inlineStr">
+      <c r="ELL1" s="1" t="inlineStr">
         <is>
           <t>미침</t>
         </is>
       </c>
-      <c r="ELL1" s="1" t="inlineStr">
+      <c r="ELM1" s="1" t="inlineStr">
         <is>
           <t>cad</t>
         </is>
       </c>
-      <c r="ELM1" s="1" t="inlineStr">
+      <c r="ELN1" s="1" t="inlineStr">
         <is>
           <t>거시</t>
         </is>
       </c>
-      <c r="ELN1" s="1" t="inlineStr">
+      <c r="ELO1" s="1" t="inlineStr">
         <is>
           <t>메이커</t>
         </is>
       </c>
-      <c r="ELO1" s="1" t="inlineStr">
+      <c r="ELP1" s="1" t="inlineStr">
         <is>
           <t>부피</t>
         </is>
       </c>
-      <c r="ELP1" s="1" t="inlineStr">
+      <c r="ELQ1" s="1" t="inlineStr">
         <is>
           <t>스페이스</t>
         </is>
       </c>
-      <c r="ELQ1" s="1" t="inlineStr">
+      <c r="ELR1" s="1" t="inlineStr">
         <is>
           <t>연계주의</t>
         </is>
       </c>
-      <c r="ELR1" s="1" t="inlineStr">
+      <c r="ELS1" s="1" t="inlineStr">
         <is>
           <t>재현</t>
         </is>
       </c>
-      <c r="ELS1" s="1" t="inlineStr">
+      <c r="ELT1" s="1" t="inlineStr">
         <is>
           <t>증명</t>
         </is>
       </c>
-      <c r="ELT1" s="1" t="inlineStr">
+      <c r="ELU1" s="1" t="inlineStr">
         <is>
           <t>학습내용</t>
         </is>
       </c>
-      <c r="ELU1" s="1" t="inlineStr">
+      <c r="ELV1" s="1" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
       </c>
-      <c r="ELV1" s="1" t="inlineStr">
+      <c r="ELW1" s="1" t="inlineStr">
         <is>
           <t>hlm</t>
         </is>
       </c>
-      <c r="ELW1" s="1" t="inlineStr">
+      <c r="ELX1" s="1" t="inlineStr">
         <is>
           <t>international</t>
         </is>
       </c>
-      <c r="ELX1" s="1" t="inlineStr">
+      <c r="ELY1" s="1" t="inlineStr">
         <is>
           <t>programme</t>
         </is>
       </c>
-      <c r="ELY1" s="1" t="inlineStr">
+      <c r="ELZ1" s="1" t="inlineStr">
         <is>
           <t>student</t>
         </is>
       </c>
-      <c r="ELZ1" s="1" t="inlineStr">
+      <c r="EMA1" s="1" t="inlineStr">
         <is>
           <t>다층</t>
         </is>
       </c>
-      <c r="EMA1" s="1" t="inlineStr">
+      <c r="EMB1" s="1" t="inlineStr">
         <is>
           <t>선형모</t>
         </is>
       </c>
-      <c r="EMB1" s="1" t="inlineStr">
+      <c r="EMC1" s="1" t="inlineStr">
         <is>
           <t>그전</t>
         </is>
       </c>
-      <c r="EMC1" s="1" t="inlineStr">
+      <c r="EMD1" s="1" t="inlineStr">
         <is>
           <t>자의식</t>
         </is>
       </c>
-      <c r="EMD1" s="1" t="inlineStr">
+      <c r="EME1" s="1" t="inlineStr">
         <is>
           <t>딥러닝</t>
         </is>
       </c>
-      <c r="EME1" s="1" t="inlineStr">
+      <c r="EMF1" s="1" t="inlineStr">
         <is>
           <t>학습흥미</t>
         </is>
       </c>
-      <c r="EMF1" s="1" t="inlineStr">
+      <c r="EMG1" s="1" t="inlineStr">
         <is>
           <t>인지력</t>
         </is>
       </c>
-      <c r="EMG1" s="1" t="inlineStr">
+      <c r="EMH1" s="1" t="inlineStr">
         <is>
           <t>현시대</t>
         </is>
       </c>
-      <c r="EMH1" s="1" t="inlineStr">
+      <c r="EMI1" s="1" t="inlineStr">
         <is>
           <t>소득계층</t>
         </is>
       </c>
-      <c r="EMI1" s="1" t="inlineStr">
+      <c r="EMJ1" s="1" t="inlineStr">
         <is>
           <t>읍면</t>
         </is>
       </c>
-      <c r="EMJ1" s="1" t="inlineStr">
+      <c r="EMK1" s="1" t="inlineStr">
         <is>
           <t>coding</t>
         </is>
       </c>
-      <c r="EMK1" s="1" t="inlineStr">
+      <c r="EML1" s="1" t="inlineStr">
         <is>
           <t>history</t>
         </is>
       </c>
-      <c r="EML1" s="1" t="inlineStr">
+      <c r="EMM1" s="1" t="inlineStr">
         <is>
           <t>hvc</t>
         </is>
       </c>
-      <c r="EMM1" s="1" t="inlineStr">
+      <c r="EMN1" s="1" t="inlineStr">
         <is>
           <t>vr</t>
         </is>
       </c>
-      <c r="EMN1" s="1" t="inlineStr">
+      <c r="EMO1" s="1" t="inlineStr">
         <is>
           <t>성숙도</t>
         </is>
       </c>
-      <c r="EMO1" s="1" t="inlineStr">
+      <c r="EMP1" s="1" t="inlineStr">
         <is>
           <t>저해</t>
         </is>
       </c>
-      <c r="EMP1" s="1" t="inlineStr">
+      <c r="EMQ1" s="1" t="inlineStr">
         <is>
           <t>촉진요인</t>
         </is>
       </c>
-      <c r="EMQ1" s="1" t="inlineStr">
+      <c r="EMR1" s="1" t="inlineStr">
         <is>
           <t>객체지향</t>
         </is>
       </c>
-      <c r="EMR1" s="1" t="inlineStr">
+      <c r="EMS1" s="1" t="inlineStr">
         <is>
           <t>교과과정</t>
         </is>
       </c>
-      <c r="EMS1" s="1" t="inlineStr">
+      <c r="EMT1" s="1" t="inlineStr">
         <is>
           <t>기억</t>
         </is>
       </c>
-      <c r="EMT1" s="1" t="inlineStr">
+      <c r="EMU1" s="1" t="inlineStr">
         <is>
           <t>편입</t>
         </is>
       </c>
-      <c r="EMU1" s="1" t="inlineStr">
+      <c r="EMV1" s="1" t="inlineStr">
         <is>
           <t>교훈</t>
         </is>
       </c>
-      <c r="EMV1" s="1" t="inlineStr">
+      <c r="EMW1" s="1" t="inlineStr">
         <is>
           <t>검사결과</t>
         </is>
       </c>
-      <c r="EMW1" s="1" t="inlineStr">
+      <c r="EMX1" s="1" t="inlineStr">
         <is>
           <t>우려성</t>
         </is>
       </c>
-      <c r="EMX1" s="1" t="inlineStr">
+      <c r="EMY1" s="1" t="inlineStr">
         <is>
           <t>교과내용</t>
         </is>
       </c>
-      <c r="EMY1" s="1" t="inlineStr">
+      <c r="EMZ1" s="1" t="inlineStr">
         <is>
           <t>영어교</t>
         </is>
       </c>
-      <c r="EMZ1" s="1" t="inlineStr">
+      <c r="ENA1" s="1" t="inlineStr">
         <is>
           <t>유사점</t>
         </is>
       </c>
-      <c r="ENA1" s="1" t="inlineStr">
+      <c r="ENB1" s="1" t="inlineStr">
         <is>
           <t>포용</t>
         </is>
       </c>
-      <c r="ENB1" s="1" t="inlineStr">
+      <c r="ENC1" s="1" t="inlineStr">
         <is>
           <t>kaie</t>
         </is>
       </c>
-      <c r="ENC1" s="1" t="inlineStr">
+      <c r="END1" s="1" t="inlineStr">
         <is>
           <t>예절</t>
         </is>
       </c>
-      <c r="END1" s="1" t="inlineStr">
+      <c r="ENE1" s="1" t="inlineStr">
         <is>
           <t>차기</t>
         </is>
       </c>
-      <c r="ENE1" s="1" t="inlineStr">
+      <c r="ENF1" s="1" t="inlineStr">
         <is>
           <t>시간이상</t>
         </is>
       </c>
-      <c r="ENF1" s="1" t="inlineStr">
+      <c r="ENG1" s="1" t="inlineStr">
         <is>
           <t>계획서</t>
         </is>
       </c>
-      <c r="ENG1" s="1" t="inlineStr">
+      <c r="ENH1" s="1" t="inlineStr">
         <is>
           <t>구조화</t>
         </is>
       </c>
-      <c r="ENH1" s="1" t="inlineStr">
+      <c r="ENI1" s="1" t="inlineStr">
         <is>
           <t>학점</t>
         </is>
       </c>
-      <c r="ENI1" s="1" t="inlineStr">
+      <c r="ENJ1" s="1" t="inlineStr">
         <is>
           <t>nielsen</t>
         </is>
       </c>
-      <c r="ENJ1" s="1" t="inlineStr">
+      <c r="ENK1" s="1" t="inlineStr">
         <is>
           <t>관계자</t>
         </is>
       </c>
-      <c r="ENK1" s="1" t="inlineStr">
+      <c r="ENL1" s="1" t="inlineStr">
         <is>
           <t>중생</t>
         </is>
       </c>
-      <c r="ENL1" s="1" t="inlineStr">
+      <c r="ENM1" s="1" t="inlineStr">
         <is>
           <t>증거</t>
         </is>
       </c>
-      <c r="ENM1" s="1" t="inlineStr">
+      <c r="ENN1" s="1" t="inlineStr">
         <is>
           <t>진단평가</t>
         </is>
       </c>
-      <c r="ENN1" s="1" t="inlineStr">
+      <c r="ENO1" s="1" t="inlineStr">
         <is>
           <t>평가시스템</t>
         </is>
       </c>
-      <c r="ENO1" s="1" t="inlineStr">
+      <c r="ENP1" s="1" t="inlineStr">
         <is>
           <t>휴리스틱스</t>
         </is>
       </c>
-      <c r="ENP1" s="1" t="inlineStr">
+      <c r="ENQ1" s="1" t="inlineStr">
         <is>
           <t>해결수월</t>
         </is>
       </c>
-      <c r="ENQ1" s="1" t="inlineStr">
+      <c r="ENR1" s="1" t="inlineStr">
         <is>
           <t>기획서</t>
         </is>
       </c>
-      <c r="ENR1" s="1" t="inlineStr">
+      <c r="ENS1" s="1" t="inlineStr">
         <is>
           <t>성찰지</t>
         </is>
       </c>
-      <c r="ENS1" s="1" t="inlineStr">
+      <c r="ENT1" s="1" t="inlineStr">
         <is>
           <t>테이블</t>
         </is>
       </c>
-      <c r="ENT1" s="1" t="inlineStr">
+      <c r="ENU1" s="1" t="inlineStr">
         <is>
           <t>팀간</t>
         </is>
       </c>
-      <c r="ENU1" s="1" t="inlineStr">
+      <c r="ENV1" s="1" t="inlineStr">
         <is>
           <t>프로슈머</t>
         </is>
       </c>
-      <c r="ENV1" s="1" t="inlineStr">
+      <c r="ENW1" s="1" t="inlineStr">
         <is>
           <t>dr</t>
         </is>
       </c>
-      <c r="ENW1" s="1" t="inlineStr">
+      <c r="ENX1" s="1" t="inlineStr">
         <is>
           <t>비버챌린지</t>
         </is>
       </c>
-      <c r="ENX1" s="1" t="inlineStr">
+      <c r="ENY1" s="1" t="inlineStr">
         <is>
           <t>전공자</t>
         </is>
       </c>
-      <c r="ENY1" s="1" t="inlineStr">
+      <c r="ENZ1" s="1" t="inlineStr">
         <is>
           <t>최적화</t>
         </is>
       </c>
-      <c r="ENZ1" s="1" t="inlineStr">
+      <c r="EOA1" s="1" t="inlineStr">
         <is>
           <t>카운팅</t>
         </is>
       </c>
-      <c r="EOA1" s="1" t="inlineStr">
+      <c r="EOB1" s="1" t="inlineStr">
         <is>
           <t>파워</t>
         </is>
       </c>
-      <c r="EOB1" s="1" t="inlineStr">
+      <c r="EOC1" s="1" t="inlineStr">
         <is>
           <t>ddd</t>
         </is>
       </c>
-      <c r="EOC1" s="1" t="inlineStr">
+      <c r="EOD1" s="1" t="inlineStr">
         <is>
           <t>development</t>
         </is>
       </c>
-      <c r="EOD1" s="1" t="inlineStr">
+      <c r="EOE1" s="1" t="inlineStr">
         <is>
           <t>discovery</t>
         </is>
       </c>
-      <c r="EOE1" s="1" t="inlineStr">
+      <c r="EOF1" s="1" t="inlineStr">
         <is>
           <t>동작인식</t>
         </is>
@@ -19338,7 +19343,7 @@
         <v>2.98</v>
       </c>
       <c r="K2" t="n">
-        <v>13.75999999999993</v>
+        <v>13.76999999999992</v>
       </c>
       <c r="L2" t="n">
         <v>3.1</v>
@@ -19377,19 +19382,19 @@
         <v>1.34</v>
       </c>
       <c r="X2" t="n">
-        <v>18.06999999999998</v>
+        <v>18.05999999999998</v>
       </c>
       <c r="Y2" t="n">
         <v>3.030000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>26.28999999999998</v>
+        <v>26.30999999999998</v>
       </c>
       <c r="AA2" t="n">
         <v>10.98999999999997</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.01999999999995</v>
+        <v>12.02999999999995</v>
       </c>
       <c r="AC2" t="n">
         <v>9.939999999999968</v>
@@ -19401,7 +19406,7 @@
         <v>0.26</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.96</v>
+        <v>3.97</v>
       </c>
       <c r="AG2" t="n">
         <v>4.46</v>
@@ -19416,7 +19421,7 @@
         <v>2.030000000000001</v>
       </c>
       <c r="AK2" t="n">
-        <v>12.04</v>
+        <v>12.05</v>
       </c>
       <c r="AL2" t="n">
         <v>6.170000000000002</v>
@@ -19425,7 +19430,7 @@
         <v>2.47</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.059999999999998</v>
+        <v>7.069999999999998</v>
       </c>
       <c r="AO2" t="n">
         <v>4.389999999999997</v>
@@ -19434,7 +19439,7 @@
         <v>5.639999999999995</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7.470000000000002</v>
+        <v>7.500000000000003</v>
       </c>
       <c r="AR2" t="n">
         <v>9.149999999999999</v>
@@ -19455,7 +19460,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AX2" t="n">
-        <v>6.950000000000002</v>
+        <v>6.960000000000002</v>
       </c>
       <c r="AY2" t="n">
         <v>5.119999999999998</v>
@@ -19482,7 +19487,7 @@
         <v>4.119999999999999</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.739999999999999</v>
+        <v>4.749999999999999</v>
       </c>
       <c r="BH2" t="n">
         <v>0.9399999999999999</v>
@@ -19530,7 +19535,7 @@
         <v>0.62</v>
       </c>
       <c r="BW2" t="n">
-        <v>12.01999999999995</v>
+        <v>12.03999999999995</v>
       </c>
       <c r="BX2" t="n">
         <v>3.06</v>
@@ -19650,7 +19655,7 @@
         <v>0.43</v>
       </c>
       <c r="DK2" t="n">
-        <v>9.989999999999995</v>
+        <v>9.999999999999995</v>
       </c>
       <c r="DL2" t="n">
         <v>1.34</v>
@@ -19677,7 +19682,7 @@
         <v>0.55</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="DU2" t="n">
         <v>2.63</v>
@@ -19686,7 +19691,7 @@
         <v>3.47</v>
       </c>
       <c r="DW2" t="n">
-        <v>13.23999999999999</v>
+        <v>13.24999999999999</v>
       </c>
       <c r="DX2" t="n">
         <v>0.09</v>
@@ -19716,7 +19721,7 @@
         <v>0.09</v>
       </c>
       <c r="EG2" t="n">
-        <v>7.329999999999999</v>
+        <v>7.37</v>
       </c>
       <c r="EH2" t="n">
         <v>2.010000000000001</v>
@@ -19767,7 +19772,7 @@
         <v>8.249999999999993</v>
       </c>
       <c r="EX2" t="n">
-        <v>6.58</v>
+        <v>6.59</v>
       </c>
       <c r="EY2" t="n">
         <v>0.09</v>
@@ -19797,7 +19802,7 @@
         <v>8.439999999999998</v>
       </c>
       <c r="FH2" t="n">
-        <v>4.819999999999999</v>
+        <v>4.829999999999998</v>
       </c>
       <c r="FI2" t="n">
         <v>7.109999999999999</v>
@@ -19863,7 +19868,7 @@
         <v>3.4</v>
       </c>
       <c r="GD2" t="n">
-        <v>3.879999999999999</v>
+        <v>3.89</v>
       </c>
       <c r="GE2" t="n">
         <v>5.27</v>
@@ -19875,7 +19880,7 @@
         <v>0.39</v>
       </c>
       <c r="GH2" t="n">
-        <v>12.82999999999998</v>
+        <v>12.83999999999998</v>
       </c>
       <c r="GI2" t="n">
         <v>4.24</v>
@@ -20022,7 +20027,7 @@
         <v>5.189999999999998</v>
       </c>
       <c r="IE2" t="n">
-        <v>2.160000000000001</v>
+        <v>2.17</v>
       </c>
       <c r="IF2" t="n">
         <v>0.99</v>
@@ -20079,7 +20084,7 @@
         <v>1.640000000000001</v>
       </c>
       <c r="IX2" t="n">
-        <v>10.91999999999998</v>
+        <v>10.90999999999998</v>
       </c>
       <c r="IY2" t="n">
         <v>2.32</v>
@@ -20166,7 +20171,7 @@
         <v>0.6499999999999999</v>
       </c>
       <c r="KA2" t="n">
-        <v>2.870000000000001</v>
+        <v>2.86</v>
       </c>
       <c r="KB2" t="n">
         <v>0.16</v>
@@ -20196,7 +20201,7 @@
         <v>0.25</v>
       </c>
       <c r="KK2" t="n">
-        <v>10.27</v>
+        <v>10.25</v>
       </c>
       <c r="KL2" t="n">
         <v>1.960000000000001</v>
@@ -20250,7 +20255,7 @@
         <v>0.16</v>
       </c>
       <c r="LC2" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="LD2" t="n">
         <v>2.91</v>
@@ -20280,7 +20285,7 @@
         <v>1.55</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="LN2" t="n">
         <v>0.5700000000000001</v>
@@ -20325,7 +20330,7 @@
         <v>0.98</v>
       </c>
       <c r="MB2" t="n">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="MC2" t="n">
         <v>1.880000000000001</v>
@@ -20403,7 +20408,7 @@
         <v>0.9</v>
       </c>
       <c r="NB2" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="NC2" t="n">
         <v>0.99</v>
@@ -20424,7 +20429,7 @@
         <v>8.529999999999994</v>
       </c>
       <c r="NI2" t="n">
-        <v>5.399999999999998</v>
+        <v>5.419999999999998</v>
       </c>
       <c r="NJ2" t="n">
         <v>1.39</v>
@@ -20481,7 +20486,7 @@
         <v>1.04</v>
       </c>
       <c r="OB2" t="n">
-        <v>4.479999999999999</v>
+        <v>4.469999999999999</v>
       </c>
       <c r="OC2" t="n">
         <v>1.28</v>
@@ -20535,7 +20540,7 @@
         <v>1.68</v>
       </c>
       <c r="OT2" t="n">
-        <v>2.240000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="OU2" t="n">
         <v>2.110000000000001</v>
@@ -20571,7 +20576,7 @@
         <v>0.17</v>
       </c>
       <c r="PF2" t="n">
-        <v>6.059999999999998</v>
+        <v>6.069999999999998</v>
       </c>
       <c r="PG2" t="n">
         <v>3.41</v>
@@ -20583,7 +20588,7 @@
         <v>1.36</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="PK2" t="n">
         <v>0.25</v>
@@ -20622,7 +20627,7 @@
         <v>0.13</v>
       </c>
       <c r="PW2" t="n">
-        <v>7.999999999999997</v>
+        <v>7.999999999999996</v>
       </c>
       <c r="PX2" t="n">
         <v>2.02</v>
@@ -20886,7 +20891,7 @@
         <v>0.13</v>
       </c>
       <c r="TG2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="TH2" t="n">
         <v>0.26</v>
@@ -20919,7 +20924,7 @@
         <v>1.29</v>
       </c>
       <c r="TR2" t="n">
-        <v>3.169999999999999</v>
+        <v>3.179999999999999</v>
       </c>
       <c r="TS2" t="n">
         <v>0.26</v>
@@ -20967,7 +20972,7 @@
         <v>0.96</v>
       </c>
       <c r="UH2" t="n">
-        <v>5.929999999999998</v>
+        <v>5.919999999999998</v>
       </c>
       <c r="UI2" t="n">
         <v>1.01</v>
@@ -20988,7 +20993,7 @@
         <v>0.77</v>
       </c>
       <c r="UO2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="UP2" t="n">
         <v>2.600000000000001</v>
@@ -21003,7 +21008,7 @@
         <v>0.49</v>
       </c>
       <c r="UT2" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="UU2" t="n">
         <v>0.24</v>
@@ -21081,7 +21086,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="VT2" t="n">
-        <v>9.010000000000002</v>
+        <v>9.000000000000002</v>
       </c>
       <c r="VU2" t="n">
         <v>0.32</v>
@@ -21123,7 +21128,7 @@
         <v>0.9900000000000001</v>
       </c>
       <c r="WH2" t="n">
-        <v>5.229999999999999</v>
+        <v>5.239999999999998</v>
       </c>
       <c r="WI2" t="n">
         <v>0.6899999999999999</v>
@@ -21348,10 +21353,10 @@
         <v>0.12</v>
       </c>
       <c r="ZE2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="ZF2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="ZG2" t="n">
         <v>0.37</v>
@@ -21381,7 +21386,7 @@
         <v>0.12</v>
       </c>
       <c r="ZP2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="ZQ2" t="n">
         <v>2.04</v>
@@ -21399,7 +21404,7 @@
         <v>1.66</v>
       </c>
       <c r="ZV2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="ZW2" t="n">
         <v>0.26</v>
@@ -21411,10 +21416,10 @@
         <v>0.3</v>
       </c>
       <c r="ZZ2" t="n">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="AAA2" t="n">
-        <v>3.37</v>
+        <v>2.37</v>
       </c>
       <c r="AAB2" t="n">
         <v>0.44</v>
@@ -21474,7 +21479,7 @@
         <v>0.31</v>
       </c>
       <c r="AAU2" t="n">
-        <v>1.810000000000001</v>
+        <v>1.820000000000001</v>
       </c>
       <c r="AAV2" t="n">
         <v>0.09</v>
@@ -21501,7 +21506,7 @@
         <v>0.77</v>
       </c>
       <c r="ABD2" t="n">
-        <v>3.589999999999999</v>
+        <v>3.599999999999999</v>
       </c>
       <c r="ABE2" t="n">
         <v>1.9</v>
@@ -21615,7 +21620,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="ACP2" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="ACQ2" t="n">
         <v>0.11</v>
@@ -21723,7 +21728,7 @@
         <v>1.75</v>
       </c>
       <c r="ADZ2" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AEA2" t="n">
         <v>0.33</v>
@@ -22110,7 +22115,7 @@
         <v>0.88</v>
       </c>
       <c r="AIY2" t="n">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="AIZ2" t="n">
         <v>1.720000000000001</v>
@@ -22293,7 +22298,7 @@
         <v>0.38</v>
       </c>
       <c r="ALH2" t="n">
-        <v>1</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="ALI2" t="n">
         <v>2.15</v>
@@ -22386,7 +22391,7 @@
         <v>1.58</v>
       </c>
       <c r="AMM2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AMN2" t="n">
         <v>1.7</v>
@@ -22398,19 +22403,19 @@
         <v>0.3</v>
       </c>
       <c r="AMQ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AMR2" t="n">
         <v>1.57</v>
       </c>
       <c r="AMS2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AMT2" t="n">
         <v>0.46</v>
       </c>
       <c r="AMU2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AMV2" t="n">
         <v>0.2</v>
@@ -22419,10 +22424,10 @@
         <v>1.04</v>
       </c>
       <c r="AMX2" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="AMY2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="AMZ2" t="n">
         <v>0.38</v>
@@ -22569,7 +22574,7 @@
         <v>0.57</v>
       </c>
       <c r="AOV2" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AOW2" t="n">
         <v>1.570000000000001</v>
@@ -22590,7 +22595,7 @@
         <v>3.37</v>
       </c>
       <c r="APC2" t="n">
-        <v>7.96</v>
+        <v>7.949999999999999</v>
       </c>
       <c r="APD2" t="n">
         <v>0.54</v>
@@ -22623,7 +22628,7 @@
         <v>1.28</v>
       </c>
       <c r="APN2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="APO2" t="n">
         <v>0.11</v>
@@ -22734,7 +22739,7 @@
         <v>0.09</v>
       </c>
       <c r="AQY2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AQZ2" t="n">
         <v>0.09</v>
@@ -22944,7 +22949,7 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="ATQ2" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="ATR2" t="n">
         <v>0.24</v>
@@ -22962,7 +22967,7 @@
         <v>0.36</v>
       </c>
       <c r="ATW2" t="n">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
       <c r="ATX2" t="n">
         <v>0.7799999999999999</v>
@@ -22989,7 +22994,7 @@
         <v>0.09</v>
       </c>
       <c r="AUF2" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="AUG2" t="n">
         <v>0.09</v>
@@ -23091,7 +23096,7 @@
         <v>0.15</v>
       </c>
       <c r="AVN2" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AVO2" t="n">
         <v>0.15</v>
@@ -23253,7 +23258,7 @@
         <v>0.11</v>
       </c>
       <c r="AXP2" t="n">
-        <v>0.9099999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AXQ2" t="n">
         <v>0.11</v>
@@ -23340,7 +23345,7 @@
         <v>0.19</v>
       </c>
       <c r="AYS2" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="AYT2" t="n">
         <v>0.18</v>
@@ -23412,7 +23417,7 @@
         <v>0.61</v>
       </c>
       <c r="AZQ2" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AZR2" t="n">
         <v>0.4</v>
@@ -23835,7 +23840,7 @@
         <v>0.34</v>
       </c>
       <c r="BFB2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="BFC2" t="n">
         <v>0.12</v>
@@ -23865,7 +23870,7 @@
         <v>0.47</v>
       </c>
       <c r="BFL2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="BFM2" t="n">
         <v>0.12</v>
@@ -24042,7 +24047,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="BHS2" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="BHT2" t="n">
         <v>0.33</v>
@@ -24105,10 +24110,10 @@
         <v>1.35</v>
       </c>
       <c r="BIN2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="BIO2" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="BIP2" t="n">
         <v>0.31</v>
@@ -24264,7 +24269,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="BKO2" t="n">
-        <v>0.9799999999999998</v>
+        <v>0.9899999999999998</v>
       </c>
       <c r="BKP2" t="n">
         <v>0.45</v>
@@ -24327,7 +24332,7 @@
         <v>0.13</v>
       </c>
       <c r="BLJ2" t="n">
-        <v>0.8599999999999999</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="BLK2" t="n">
         <v>0.5</v>
@@ -24513,7 +24518,7 @@
         <v>0.16</v>
       </c>
       <c r="BNT2" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="BNU2" t="n">
         <v>0.28</v>
@@ -25101,7 +25106,7 @@
         <v>0.11</v>
       </c>
       <c r="BVH2" t="n">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="BVI2" t="n">
         <v>0.11</v>
@@ -26148,7 +26153,7 @@
         <v>0.25</v>
       </c>
       <c r="CIS2" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="CIT2" t="n">
         <v>0.09</v>
@@ -26340,7 +26345,7 @@
         <v>0.66</v>
       </c>
       <c r="CLE2" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="CLF2" t="n">
         <v>0.12</v>
@@ -26463,7 +26468,7 @@
         <v>0.13</v>
       </c>
       <c r="CMT2" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="CMU2" t="n">
         <v>0.27</v>
@@ -27165,7 +27170,7 @@
         <v>0.31</v>
       </c>
       <c r="CVT2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="CVU2" t="n">
         <v>0.19</v>
@@ -27330,7 +27335,7 @@
         <v>0.1</v>
       </c>
       <c r="CXW2" t="n">
-        <v>0.5399999999999999</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="CXX2" t="n">
         <v>0.1</v>
@@ -27819,7 +27824,7 @@
         <v>0.16</v>
       </c>
       <c r="DED2" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="DEE2" t="n">
         <v>0.13</v>
@@ -28431,13 +28436,13 @@
         <v>0.09</v>
       </c>
       <c r="DLZ2" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="DMA2" t="n">
         <v>0.12</v>
       </c>
       <c r="DMB2" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="DMC2" t="n">
         <v>0.09</v>
@@ -29037,7 +29042,7 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="DTT2" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="DTU2" t="n">
         <v>0.23</v>
@@ -29967,7 +29972,7 @@
         <v>0.14</v>
       </c>
       <c r="EFR2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="EFS2" t="n">
         <v>0.15</v>
@@ -30081,7 +30086,7 @@
         <v>0.21</v>
       </c>
       <c r="EHD2" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="EHE2" t="n">
         <v>0.26</v>
@@ -30126,28 +30131,28 @@
         <v>0.16</v>
       </c>
       <c r="EHS2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="EHT2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="EHU2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="EHV2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EHT2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="EHU2" t="n">
+      <c r="EHW2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="EHX2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EHV2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EHW2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EHX2" t="n">
+      <c r="EHY2" t="n">
         <v>0.29</v>
       </c>
-      <c r="EHY2" t="n">
+      <c r="EHZ2" t="n">
         <v>0.16</v>
-      </c>
-      <c r="EHZ2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EIA2" t="n">
         <v>0.12</v>
@@ -30156,52 +30161,52 @@
         <v>0.12</v>
       </c>
       <c r="EIC2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EID2" t="n">
         <v>0.51</v>
-      </c>
-      <c r="EID2" t="n">
-        <v>0.25</v>
       </c>
       <c r="EIE2" t="n">
         <v>0.25</v>
       </c>
       <c r="EIF2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="EIG2" t="n">
         <v>0.1</v>
       </c>
-      <c r="EIG2" t="n">
+      <c r="EIH2" t="n">
         <v>0.19</v>
-      </c>
-      <c r="EIH2" t="n">
-        <v>0.1</v>
       </c>
       <c r="EII2" t="n">
         <v>0.1</v>
       </c>
       <c r="EIJ2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EIK2" t="n">
         <v>0.4</v>
       </c>
-      <c r="EIK2" t="n">
+      <c r="EIL2" t="n">
         <v>0.08</v>
       </c>
-      <c r="EIL2" t="n">
+      <c r="EIM2" t="n">
         <v>0.4</v>
       </c>
-      <c r="EIM2" t="n">
+      <c r="EIN2" t="n">
         <v>0.24</v>
       </c>
-      <c r="EIN2" t="n">
+      <c r="EIO2" t="n">
         <v>0.08</v>
       </c>
-      <c r="EIO2" t="n">
+      <c r="EIP2" t="n">
         <v>0.63</v>
-      </c>
-      <c r="EIP2" t="n">
-        <v>0.21</v>
       </c>
       <c r="EIQ2" t="n">
         <v>0.21</v>
       </c>
       <c r="EIR2" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="EIS2" t="n">
         <v>0.13</v>
@@ -30210,13 +30215,13 @@
         <v>0.13</v>
       </c>
       <c r="EIU2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EIV2" t="n">
         <v>0.5</v>
       </c>
-      <c r="EIV2" t="n">
+      <c r="EIW2" t="n">
         <v>0.11</v>
-      </c>
-      <c r="EIW2" t="n">
-        <v>0.15</v>
       </c>
       <c r="EIX2" t="n">
         <v>0.15</v>
@@ -30228,31 +30233,31 @@
         <v>0.15</v>
       </c>
       <c r="EJA2" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="EJB2" t="n">
         <v>0.45</v>
       </c>
       <c r="EJC2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="EJD2" t="n">
         <v>0.4</v>
       </c>
-      <c r="EJD2" t="n">
+      <c r="EJE2" t="n">
         <v>0.13</v>
       </c>
-      <c r="EJE2" t="n">
+      <c r="EJF2" t="n">
         <v>0.53</v>
-      </c>
-      <c r="EJF2" t="n">
-        <v>0.13</v>
       </c>
       <c r="EJG2" t="n">
         <v>0.13</v>
       </c>
       <c r="EJH2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EJI2" t="n">
         <v>0.18</v>
-      </c>
-      <c r="EJI2" t="n">
-        <v>0.11</v>
       </c>
       <c r="EJJ2" t="n">
         <v>0.11</v>
@@ -30261,10 +30266,10 @@
         <v>0.11</v>
       </c>
       <c r="EJL2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EJM2" t="n">
         <v>0.22</v>
-      </c>
-      <c r="EJM2" t="n">
-        <v>0.08</v>
       </c>
       <c r="EJN2" t="n">
         <v>0.08</v>
@@ -30282,7 +30287,7 @@
         <v>0.08</v>
       </c>
       <c r="EJS2" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="EJT2" t="n">
         <v>0.12</v>
@@ -30321,7 +30326,7 @@
         <v>0.12</v>
       </c>
       <c r="EKF2" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="EKG2" t="n">
         <v>0.09</v>
@@ -30336,19 +30341,19 @@
         <v>0.09</v>
       </c>
       <c r="EKK2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="EKL2" t="n">
         <v>0.51</v>
       </c>
-      <c r="EKL2" t="n">
+      <c r="EKM2" t="n">
         <v>0.43</v>
       </c>
-      <c r="EKM2" t="n">
+      <c r="EKN2" t="n">
         <v>0.28</v>
       </c>
-      <c r="EKN2" t="n">
+      <c r="EKO2" t="n">
         <v>0.24</v>
-      </c>
-      <c r="EKO2" t="n">
-        <v>0.14</v>
       </c>
       <c r="EKP2" t="n">
         <v>0.14</v>
@@ -30357,16 +30362,16 @@
         <v>0.14</v>
       </c>
       <c r="EKR2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="EKS2" t="n">
         <v>0.41</v>
-      </c>
-      <c r="EKS2" t="n">
-        <v>0.14</v>
       </c>
       <c r="EKT2" t="n">
         <v>0.14</v>
       </c>
       <c r="EKU2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="EKV2" t="n">
         <v>0.13</v>
@@ -30378,19 +30383,19 @@
         <v>0.13</v>
       </c>
       <c r="EKY2" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="EKZ2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="ELA2" t="n">
         <v>0.31</v>
       </c>
-      <c r="ELA2" t="n">
-        <v>0.15</v>
-      </c>
       <c r="ELB2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="ELC2" t="n">
         <v>0.13</v>
-      </c>
-      <c r="ELC2" t="n">
-        <v>0.16</v>
       </c>
       <c r="ELD2" t="n">
         <v>0.16</v>
@@ -30399,34 +30404,34 @@
         <v>0.16</v>
       </c>
       <c r="ELF2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="ELG2" t="n">
         <v>0.28</v>
       </c>
-      <c r="ELG2" t="n">
+      <c r="ELH2" t="n">
         <v>0.09</v>
       </c>
-      <c r="ELH2" t="n">
+      <c r="ELI2" t="n">
         <v>0.28</v>
-      </c>
-      <c r="ELI2" t="n">
-        <v>0.17</v>
       </c>
       <c r="ELJ2" t="n">
         <v>0.17</v>
       </c>
       <c r="ELK2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="ELL2" t="n">
         <v>0.13</v>
-      </c>
-      <c r="ELL2" t="n">
-        <v>0.09</v>
       </c>
       <c r="ELM2" t="n">
         <v>0.09</v>
       </c>
       <c r="ELN2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ELO2" t="n">
         <v>0.52</v>
-      </c>
-      <c r="ELO2" t="n">
-        <v>0.09</v>
       </c>
       <c r="ELP2" t="n">
         <v>0.09</v>
@@ -30435,16 +30440,16 @@
         <v>0.09</v>
       </c>
       <c r="ELR2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ELS2" t="n">
         <v>0.18</v>
-      </c>
-      <c r="ELS2" t="n">
-        <v>0.09</v>
       </c>
       <c r="ELT2" t="n">
         <v>0.09</v>
       </c>
       <c r="ELU2" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="ELV2" t="n">
         <v>0.13</v>
@@ -30465,43 +30470,43 @@
         <v>0.13</v>
       </c>
       <c r="EMB2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="EMC2" t="n">
         <v>0.14</v>
       </c>
       <c r="EMD2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="EME2" t="n">
         <v>0.83</v>
       </c>
-      <c r="EME2" t="n">
+      <c r="EMF2" t="n">
         <v>0.13</v>
-      </c>
-      <c r="EMF2" t="n">
-        <v>0.15</v>
       </c>
       <c r="EMG2" t="n">
         <v>0.15</v>
       </c>
       <c r="EMH2" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="EMI2" t="n">
         <v>0.1</v>
       </c>
       <c r="EMJ2" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="EMK2" t="n">
         <v>0.15</v>
       </c>
       <c r="EML2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="EMM2" t="n">
         <v>0.6</v>
       </c>
-      <c r="EMM2" t="n">
+      <c r="EMN2" t="n">
         <v>0.15</v>
-      </c>
-      <c r="EMN2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EMO2" t="n">
         <v>0.12</v>
@@ -30510,10 +30515,10 @@
         <v>0.12</v>
       </c>
       <c r="EMQ2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EMR2" t="n">
         <v>0.15</v>
-      </c>
-      <c r="EMR2" t="n">
-        <v>0.1</v>
       </c>
       <c r="EMS2" t="n">
         <v>0.1</v>
@@ -30522,49 +30527,49 @@
         <v>0.1</v>
       </c>
       <c r="EMU2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EMV2" t="n">
         <v>0.18</v>
       </c>
-      <c r="EMV2" t="n">
-        <v>0.1</v>
-      </c>
       <c r="EMW2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="EMX2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EMY2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EMY2" t="n">
+      <c r="EMZ2" t="n">
         <v>0.3</v>
-      </c>
-      <c r="EMZ2" t="n">
-        <v>0.15</v>
       </c>
       <c r="ENA2" t="n">
         <v>0.15</v>
       </c>
       <c r="ENB2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="ENC2" t="n">
         <v>0.6799999999999999</v>
-      </c>
-      <c r="ENC2" t="n">
-        <v>0.2</v>
       </c>
       <c r="END2" t="n">
         <v>0.2</v>
       </c>
       <c r="ENE2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ENF2" t="n">
         <v>0.19</v>
       </c>
-      <c r="ENF2" t="n">
+      <c r="ENG2" t="n">
         <v>0.08</v>
       </c>
-      <c r="ENG2" t="n">
+      <c r="ENH2" t="n">
         <v>0.19</v>
       </c>
-      <c r="ENH2" t="n">
+      <c r="ENI2" t="n">
         <v>0.3</v>
-      </c>
-      <c r="ENI2" t="n">
-        <v>0.12</v>
       </c>
       <c r="ENJ2" t="n">
         <v>0.12</v>
@@ -30582,13 +30587,13 @@
         <v>0.12</v>
       </c>
       <c r="ENO2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="ENP2" t="n">
         <v>0.71</v>
       </c>
-      <c r="ENP2" t="n">
+      <c r="ENQ2" t="n">
         <v>0.16</v>
-      </c>
-      <c r="ENQ2" t="n">
-        <v>0.1</v>
       </c>
       <c r="ENR2" t="n">
         <v>0.1</v>
@@ -30603,16 +30608,16 @@
         <v>0.1</v>
       </c>
       <c r="ENV2" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="ENW2" t="n">
         <v>0.22</v>
       </c>
       <c r="ENX2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="ENY2" t="n">
         <v>0.11</v>
-      </c>
-      <c r="ENY2" t="n">
-        <v>0.14</v>
       </c>
       <c r="ENZ2" t="n">
         <v>0.14</v>
@@ -30621,7 +30626,7 @@
         <v>0.14</v>
       </c>
       <c r="EOB2" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="EOC2" t="n">
         <v>0.17</v>
@@ -30630,7 +30635,10 @@
         <v>0.17</v>
       </c>
       <c r="EOE2" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
+      </c>
+      <c r="EOF2" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
